--- a/Arq Comp/analytics.xlsx
+++ b/Arq Comp/analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\ANALYTICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\PROJETO2\projeto_Pi\Arq Comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D35ACC3-DA1A-4AB7-9969-1C7D12809A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C7543-A34B-4BB3-9AAB-59FF1B63C867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -81,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,7 +177,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +192,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,7 +511,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,11 +689,11 @@
       <c r="B4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="20">
         <f>MIN(B1:B20)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="19">
         <f>_xlfn.QUARTILE.EXC(B1:B20,1)</f>
         <v>0</v>
       </c>
@@ -705,11 +719,11 @@
       <c r="L4" s="15">
         <v>3</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="20">
         <f>MIN(L2:L22)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="19">
         <f>_xlfn.QUARTILE.EXC(L2:L22,1)</f>
         <v>4</v>
       </c>
@@ -735,11 +749,11 @@
       <c r="V4" s="15">
         <v>11</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="20">
         <f>MIN(V2:V22)</f>
         <v>10</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="19">
         <f>_xlfn.QUARTILE.EXC(V2:V23,1)</f>
         <v>10.5</v>
       </c>
@@ -1127,6 +1141,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A5FC0246A07B443A05063C8EB2AC7D8" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4044185caad13901db6ed9cf027cb62e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8061e086-846d-4709-83ef-f95cce98977c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef145caafaa4d071a09fcfea9b85fcfc" ns3:_="">
     <xsd:import namespace="8061e086-846d-4709-83ef-f95cce98977c"/>
@@ -1276,15 +1299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}">
   <ds:schemaRefs>
@@ -1295,6 +1309,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC080077-ED7F-44D9-8DF2-81C40B798909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1310,12 +1332,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Arq Comp/analytics.xlsx
+++ b/Arq Comp/analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\PROJETO2\projeto_Pi\Arq Comp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Documents\Bandtec\Github\projeto_Pi\Arq Comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C7543-A34B-4BB3-9AAB-59FF1B63C867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC2F7A-AB31-49AD-A414-72A401B34934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,12 +194,39 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -212,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,16 +535,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8288EE20-1F03-4DB0-A832-9E2AC0B3D5DC}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -569,20 +602,20 @@
       <c r="L2" s="15">
         <v>3</v>
       </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="N2" s="21">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22">
         <v>0.25</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="23">
         <v>0.5</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="22">
         <v>0.75</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="21">
         <v>1</v>
       </c>
       <c r="U2" s="14">
@@ -719,27 +752,27 @@
       <c r="L4" s="15">
         <v>3</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="24">
         <f>MIN(L2:L22)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="25">
         <f>_xlfn.QUARTILE.EXC(L2:L22,1)</f>
         <v>4</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="26">
         <f>AVERAGE(L2:L22)</f>
         <v>5.1904761904761907</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="27">
         <f>MEDIAN(L2:L22)</f>
         <v>5</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="17">
         <f>_xlfn.QUARTILE.EXC(L2:L22,3)</f>
         <v>7</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="16">
         <f>MAX(Q4)</f>
         <v>5</v>
       </c>
@@ -1127,6 +1160,30 @@
       <c r="V22" s="15">
         <v>12</v>
       </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1135,21 +1192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A5FC0246A07B443A05063C8EB2AC7D8" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4044185caad13901db6ed9cf027cb62e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8061e086-846d-4709-83ef-f95cce98977c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef145caafaa4d071a09fcfea9b85fcfc" ns3:_="">
     <xsd:import namespace="8061e086-846d-4709-83ef-f95cce98977c"/>
@@ -1299,24 +1341,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC080077-ED7F-44D9-8DF2-81C40B798909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1332,4 +1372,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Arq Comp/analytics.xlsx
+++ b/Arq Comp/analytics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Documents\Bandtec\Github\projeto_Pi\Arq Comp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\git\projeto_Pi\Arq Comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC2F7A-AB31-49AD-A414-72A401B34934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{FDDC21F6-B00F-4A13-B46A-978E6BFF21E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9041502-078F-4A4E-8500-888B3E82AE48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t xml:space="preserve">ZONA 1 </t>
   </si>
@@ -41,6 +42,12 @@
     <t>TEMP</t>
   </si>
   <si>
+    <t>ZONA 2</t>
+  </si>
+  <si>
+    <t>ZONA 3</t>
+  </si>
+  <si>
     <t>MINIMO</t>
   </si>
   <si>
@@ -59,10 +66,31 @@
     <t>MAXIMO</t>
   </si>
   <si>
-    <t>ZONA 2</t>
-  </si>
-  <si>
-    <t>ZONA 3</t>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -72,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +242,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,11 +571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8288EE20-1F03-4DB0-A832-9E2AC0B3D5DC}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -553,7 +587,7 @@
     <col min="20" max="20" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,19 +595,19 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -641,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -649,22 +683,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K3" s="14">
         <v>2</v>
@@ -673,22 +707,22 @@
         <v>4</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U3" s="14">
         <v>2</v>
@@ -697,25 +731,25 @@
         <v>14</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -727,15 +761,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f>_xlfn.QUARTILE.EXC(B1:B20,1)</f>
+        <f>_xlfn.QUARTILE.EXC(B2:B22,1)</f>
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <f>AVERAGE(B1:B20)</f>
-        <v>0.52631578947368418</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
-        <f>MEDIAN(B1:B20)</f>
         <v>1</v>
       </c>
       <c r="H4" s="11">
@@ -750,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="24">
         <f>MIN(L2:L22)</f>
@@ -762,19 +794,19 @@
       </c>
       <c r="P4" s="26">
         <f>AVERAGE(L2:L22)</f>
-        <v>5.1904761904761907</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="Q4" s="27">
         <f>MEDIAN(L2:L22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R4" s="17">
         <f>_xlfn.QUARTILE.EXC(L2:L22,3)</f>
         <v>7</v>
       </c>
       <c r="S4" s="16">
-        <f>MAX(Q4)</f>
-        <v>5</v>
+        <f>MAX(L2:L22)</f>
+        <v>8</v>
       </c>
       <c r="U4" s="14">
         <v>3</v>
@@ -792,7 +824,7 @@
       </c>
       <c r="Z4" s="18">
         <f>AVERAGE(V2:V22)</f>
-        <v>11.904761904761905</v>
+        <v>11.857142857142858</v>
       </c>
       <c r="AA4" s="13">
         <f>MEDIAN(V2:V22)</f>
@@ -807,18 +839,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="14">
         <v>4</v>
       </c>
       <c r="L5" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U5" s="14">
         <v>4</v>
@@ -827,18 +859,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>1</v>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="K6" s="14">
         <v>5</v>
       </c>
       <c r="L6" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6" s="14">
         <v>5</v>
@@ -847,18 +879,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
+      <c r="B7" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="K7" s="14">
         <v>6</v>
       </c>
       <c r="L7" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" s="14">
         <v>6</v>
@@ -867,12 +899,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>1</v>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="K8" s="14">
         <v>7</v>
@@ -887,12 +919,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>1</v>
+      <c r="B9" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="K9" s="14">
         <v>8</v>
@@ -907,18 +939,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="K10" s="14">
         <v>9</v>
       </c>
       <c r="L10" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U10" s="14">
         <v>9</v>
@@ -927,18 +959,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>0</v>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="K11" s="14">
         <v>10</v>
       </c>
       <c r="L11" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11" s="14">
         <v>10</v>
@@ -947,18 +979,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>1</v>
+      <c r="B12" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="K12" s="14">
         <v>11</v>
       </c>
       <c r="L12" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U12" s="14">
         <v>11</v>
@@ -967,18 +999,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <v>0</v>
+      <c r="B13" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K13" s="14">
         <v>12</v>
       </c>
       <c r="L13" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U13" s="14">
         <v>12</v>
@@ -987,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1007,18 +1039,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="14">
         <v>14</v>
       </c>
       <c r="L15" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U15" s="14">
         <v>14</v>
@@ -1027,7 +1059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1038,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U16" s="14">
         <v>15</v>
@@ -1047,12 +1079,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
-        <v>0</v>
+      <c r="B17" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="K17" s="14">
         <v>16</v>
@@ -1067,18 +1099,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
-        <v>0</v>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="K18" s="14">
         <v>17</v>
       </c>
       <c r="L18" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" s="14">
         <v>17</v>
@@ -1087,18 +1119,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
-        <v>0</v>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="14">
         <v>18</v>
       </c>
       <c r="L19" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U19" s="14">
         <v>18</v>
@@ -1107,7 +1139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -1118,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="L20" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U20" s="14">
         <v>19</v>
@@ -1127,18 +1159,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
-        <v>1</v>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="14">
         <v>20</v>
       </c>
       <c r="L21" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U21" s="14">
         <v>20</v>
@@ -1147,42 +1179,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="K22" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U22" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V22" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="U32" s="1"/>
     </row>
   </sheetData>
@@ -1357,36 +1395,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC080077-ED7F-44D9-8DF2-81C40B798909}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8061e086-846d-4709-83ef-f95cce98977c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC080077-ED7F-44D9-8DF2-81C40B798909}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}"/>
 </file>
--- a/Arq Comp/analytics.xlsx
+++ b/Arq Comp/analytics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\git\projeto_Pi\Arq Comp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Documents\Bandtec\Github\projeto_Pi\Arq Comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FDDC21F6-B00F-4A13-B46A-978E6BFF21E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9041502-078F-4A4E-8500-888B3E82AE48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF5865-D143-4693-B2D7-62E8B0063C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE4437CC-FF5A-4486-9164-9D4E885DA380}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,10 +572,10 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="V18" sqref="A13:V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -587,7 +587,7 @@
     <col min="20" max="20" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -859,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -899,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -1199,28 +1199,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U32" s="1"/>
     </row>
   </sheetData>
@@ -1230,6 +1230,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A5FC0246A07B443A05063C8EB2AC7D8" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4044185caad13901db6ed9cf027cb62e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8061e086-846d-4709-83ef-f95cce98977c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef145caafaa4d071a09fcfea9b85fcfc" ns3:_="">
     <xsd:import namespace="8061e086-846d-4709-83ef-f95cce98977c"/>
@@ -1379,29 +1394,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC080077-ED7F-44D9-8DF2-81C40B798909}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890F991-0C9A-40B0-8E63-EE6519E5CF2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BE4089-E92A-4A6E-9EE3-594E92CD1D83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC080077-ED7F-44D9-8DF2-81C40B798909}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8061e086-846d-4709-83ef-f95cce98977c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>